--- a/csv/部门.xlsx
+++ b/csv/部门.xlsx
@@ -5,25 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57182\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\CreatDat\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08DFB28-3717-4FE4-8A30-91FBB3DF1B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1599B35F-2DAC-4054-8BF3-9D181AF9BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" activeTab="5" xr2:uid="{999CFE9C-7933-48E5-9EC7-AB28B38AAC4C}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" activeTab="3" xr2:uid="{999CFE9C-7933-48E5-9EC7-AB28B38AAC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="皮卡丘" sheetId="6" r:id="rId6"/>
+    <sheet name="层级" sheetId="7" r:id="rId3"/>
+    <sheet name="正态分布" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="皮卡丘" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$309</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$B$310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$A$1:$B$71</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">正态分布!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">正态分布!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="973">
   <si>
     <t>交付部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21396,6 +21400,54 @@
       </rPr>
       <t>蕾冠王バドレックスCalyrex</t>
     </r>
+  </si>
+  <si>
+    <t>集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -27127,7 +27179,7 @@
   <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E421" sqref="E2:E421"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27167,7 +27219,7 @@
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结果导向矩阵交付部</v>
+        <v>资源倾斜辐射交付部</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -27185,7 +27237,7 @@
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>顶层设计打透部</v>
+        <v>结果导向串联组</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -27203,7 +27255,7 @@
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>价值转化倒逼部</v>
+        <v>底层逻辑辐射交付部</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -27221,7 +27273,7 @@
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端纽带交付部</v>
+        <v>差异化横向交付部</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -27239,7 +27291,7 @@
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化发力部</v>
+        <v>便捷性布局交付部</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -27257,7 +27309,7 @@
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度复用交付部</v>
+        <v>影响力合力部</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -27275,7 +27327,7 @@
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性联动组</v>
+        <v>平台化模型交付部</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -27290,7 +27342,7 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性刺激交付部</v>
+        <v>WXG反晡交付部</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -27305,7 +27357,7 @@
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信皮实交付部</v>
+        <v>方法论链路组</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -27320,7 +27372,7 @@
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG打法交付部</v>
+        <v>新生态维度组</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -27335,7 +27387,7 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障拆解部</v>
+        <v>垂直领域战役部</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -27350,7 +27402,7 @@
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>体验度量维度部</v>
+        <v>抽离透传对焦部</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -27365,7 +27417,7 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>如何收口布局部</v>
+        <v>信息屏障因子交付部</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -27380,7 +27432,7 @@
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端反晡交付部</v>
+        <v>一致性反哺交付部</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -27395,7 +27447,7 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度分发部</v>
+        <v>平台化认知交付部</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -27410,7 +27462,7 @@
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度认知部</v>
+        <v>一致性调性交付部</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -27425,7 +27477,7 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化重组部</v>
+        <v>影响力支撑部</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -27440,7 +27492,7 @@
       </c>
       <c r="E19" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快玩法交付部</v>
+        <v>耦合性对焦交付部</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -27455,7 +27507,7 @@
       </c>
       <c r="E20" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性链路交付部</v>
+        <v>WXG抓手部</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -27470,7 +27522,7 @@
       </c>
       <c r="E21" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态分层部</v>
+        <v>组合拳生态交付部</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -27485,7 +27537,7 @@
       </c>
       <c r="E22" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>快速响应玩法部</v>
+        <v>生命周期感知交付部</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -27500,7 +27552,7 @@
       </c>
       <c r="E23" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>快速响应落地组</v>
+        <v>交付价值心力交付部</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -27512,7 +27564,7 @@
       </c>
       <c r="E24" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>顶层设计认知交付部</v>
+        <v>如何收口格局部</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -27524,7 +27576,7 @@
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面解耦组</v>
+        <v>颗粒度闭环部</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -27533,7 +27585,7 @@
       </c>
       <c r="E26" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化分装部</v>
+        <v>颗粒度融合部</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -27542,7 +27594,7 @@
       </c>
       <c r="E27" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性拆解交付部</v>
+        <v>耦合性聚合交付部</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -27551,7 +27603,7 @@
       </c>
       <c r="E28" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度包装部</v>
+        <v>颗粒度调性组</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -27560,7 +27612,7 @@
       </c>
       <c r="E29" t="str" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG心智部</v>
+        <v>点线面对焦部</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -27569,7 +27621,7 @@
       </c>
       <c r="E30" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端赛道部</v>
+        <v>点线面共建部</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -27578,7 +27630,7 @@
       </c>
       <c r="E31" t="str" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性吃透部</v>
+        <v>WXG试点组</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -27587,7 +27639,7 @@
       </c>
       <c r="E32" t="str" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击分发交付部</v>
+        <v>生命周期基因组</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -27596,7 +27648,7 @@
       </c>
       <c r="E33" t="str" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击纽带交付部</v>
+        <v>归因分析提炼组</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -27605,7 +27657,7 @@
       </c>
       <c r="E34" t="str" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域赛道交付部</v>
+        <v>垂直领域扩展组</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -27614,7 +27666,7 @@
       </c>
       <c r="E35" t="str" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化抓手部</v>
+        <v>护城河解耦交付部</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -27623,7 +27675,7 @@
       </c>
       <c r="E36" t="str" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化中台交付部</v>
+        <v>WXG战役部</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -27632,7 +27684,7 @@
       </c>
       <c r="E37" t="str" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化赛道部</v>
+        <v>易用性倒逼组</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -27641,7 +27693,7 @@
       </c>
       <c r="E38" t="str" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性协同组</v>
+        <v>影响力漏斗部</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -27650,7 +27702,7 @@
       </c>
       <c r="E39" t="str" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河心智部</v>
+        <v>易用性倒逼部</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -27659,7 +27711,7 @@
       </c>
       <c r="E40" t="str" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG链路交付部</v>
+        <v>影响力封装组</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -27668,7 +27720,7 @@
       </c>
       <c r="E41" t="str" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化融合部</v>
+        <v>一致性摸索组</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -27677,7 +27729,7 @@
       </c>
       <c r="E42" t="str" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式补位组</v>
+        <v>垂直领域融合交付部</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -27686,7 +27738,7 @@
       </c>
       <c r="E43" t="str" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>快速响应反哺交付部</v>
+        <v>完善逻辑分装交付部</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -27695,7 +27747,7 @@
       </c>
       <c r="E44" t="str" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>交付价值玩法部</v>
+        <v>信息屏障因子交付部</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -27704,7 +27756,7 @@
       </c>
       <c r="E45" t="str" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论细分交付部</v>
+        <v>耦合性反晡交付部</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -27713,7 +27765,7 @@
       </c>
       <c r="E46" t="str" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态话术交付部</v>
+        <v>WXG战役部</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -27722,7 +27774,7 @@
       </c>
       <c r="E47" t="str" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳打通交付部</v>
+        <v>精细化包装交付部</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -27731,7 +27783,7 @@
       </c>
       <c r="E48" t="str" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度规模交付部</v>
+        <v>差异化联动组</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -27740,7 +27792,7 @@
       </c>
       <c r="E49" t="str" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点辐射部</v>
+        <v>端到端提炼部</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -27749,7 +27801,7 @@
       </c>
       <c r="E50" t="str" cm="1">
         <f t="array" aca="1" ref="E50" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性生态部</v>
+        <v>点线面解耦交付部</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -27758,7 +27810,7 @@
       </c>
       <c r="E51" t="str" cm="1">
         <f t="array" aca="1" ref="E51" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度打法交付部</v>
+        <v>耦合性聚合部</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -27767,7 +27819,7 @@
       </c>
       <c r="E52" t="str" cm="1">
         <f t="array" aca="1" ref="E52" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化形态交付部</v>
+        <v>顶层设计聚焦部</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -27776,7 +27828,7 @@
       </c>
       <c r="E53" t="str" cm="1">
         <f t="array" aca="1" ref="E53" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结果导向皮实部</v>
+        <v>如何收口通道交付部</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
@@ -27785,7 +27837,7 @@
       </c>
       <c r="E54" t="str" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障皮实交付部</v>
+        <v>如何收口联动交付部</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -27794,7 +27846,7 @@
       </c>
       <c r="E55" t="str" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信中台部</v>
+        <v>WXG聚焦交付部</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -27803,7 +27855,7 @@
       </c>
       <c r="E56" t="str" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化给到部</v>
+        <v>组合拳共创交付部</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -27812,7 +27864,7 @@
       </c>
       <c r="E57" t="str" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG打法交付部</v>
+        <v>WXG打法部</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -27821,7 +27873,7 @@
       </c>
       <c r="E58" t="str" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度载体交付部</v>
+        <v>精细化中台交付部</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -27830,7 +27882,7 @@
       </c>
       <c r="E59" t="str" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快载体部</v>
+        <v>引爆点解耦交付部</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
@@ -27839,7 +27891,7 @@
       </c>
       <c r="E60" t="str" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度履约交付部</v>
+        <v>影响力晌应交付部</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -27848,7 +27900,7 @@
       </c>
       <c r="E61" t="str" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力加持部</v>
+        <v>组合拳加速交付部</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
@@ -27857,7 +27909,7 @@
       </c>
       <c r="E62" t="str" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障通道部</v>
+        <v>底层逻辑因子部</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -27866,7 +27918,7 @@
       </c>
       <c r="E63" t="str" cm="1">
         <f t="array" aca="1" ref="E63" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障生态部</v>
+        <v>完善逻辑皮实交付部</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -27875,7 +27927,7 @@
       </c>
       <c r="E64" t="str" cm="1">
         <f t="array" aca="1" ref="E64" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>复用打法联动交付部</v>
+        <v>底层逻辑试点组</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -27884,7 +27936,7 @@
       </c>
       <c r="E65" t="str" cm="1">
         <f t="array" aca="1" ref="E65" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端心力部</v>
+        <v>感知度因子部</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -27893,7 +27945,7 @@
       </c>
       <c r="E66" t="str" cm="1">
         <f t="array" aca="1" ref="E66" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG量化部</v>
+        <v>精细化因子交付部</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -27902,7 +27954,7 @@
       </c>
       <c r="E67" t="str" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性横向交付部</v>
+        <v>组合拳渗透交付部</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -27911,7 +27963,7 @@
       </c>
       <c r="E68" t="str" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点辐射部</v>
+        <v>组合拳打透部</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -27920,7 +27972,7 @@
       </c>
       <c r="E69" t="str" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信形态组</v>
+        <v>结构化体系部</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -27929,7 +27981,7 @@
       </c>
       <c r="E70" t="str" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端融合组</v>
+        <v>方法论认知部</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
@@ -27938,7 +27990,7 @@
       </c>
       <c r="E71" t="str" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG兼容交付部</v>
+        <v>平台化体感交付部</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
@@ -27947,7 +27999,7 @@
       </c>
       <c r="E72" t="str" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析加速部</v>
+        <v>强化认知包装部</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
@@ -27956,7 +28008,7 @@
       </c>
       <c r="E73" t="str" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域梳理部</v>
+        <v>价值转化纽带交付部</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
@@ -27965,7 +28017,7 @@
       </c>
       <c r="E74" t="str" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击玩法部</v>
+        <v>结果导向破圈交付部</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
@@ -27974,7 +28026,7 @@
       </c>
       <c r="E75" t="str" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度对标部</v>
+        <v>WXG封装部</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
@@ -27983,7 +28035,7 @@
       </c>
       <c r="E76" t="str" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信对齐交付部</v>
+        <v>新生态分装部</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
@@ -27992,7 +28044,7 @@
       </c>
       <c r="E77" t="str" cm="1">
         <f t="array" aca="1" ref="E77" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度场景部</v>
+        <v>易用性渗透部</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
@@ -28001,7 +28053,7 @@
       </c>
       <c r="E78" t="str" cm="1">
         <f t="array" aca="1" ref="E78" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度漏斗部</v>
+        <v>结构化协同部</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
@@ -28010,7 +28062,7 @@
       </c>
       <c r="E79" t="str" cm="1">
         <f t="array" aca="1" ref="E79" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性沉淀组</v>
+        <v>短平快穿梭交付部</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
@@ -28019,7 +28071,7 @@
       </c>
       <c r="E80" t="str" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态心力交付部</v>
+        <v>感知度量化组</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
@@ -28028,7 +28080,7 @@
       </c>
       <c r="E81" t="str" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端辐射部</v>
+        <v>平台化辐射部</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -28037,7 +28089,7 @@
       </c>
       <c r="E82" t="str" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式话术部</v>
+        <v>关键路径复盘部</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
@@ -28046,7 +28098,7 @@
       </c>
       <c r="E83" t="str" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>体验度量共建组</v>
+        <v>价值转化闭环部</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
@@ -28055,7 +28107,7 @@
       </c>
       <c r="E84" t="str" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域给到交付部</v>
+        <v>价值转化体系交付部</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
@@ -28064,7 +28116,7 @@
       </c>
       <c r="E85" t="str" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河拉通部</v>
+        <v>微信链路部</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
@@ -28073,7 +28125,7 @@
       </c>
       <c r="E86" t="str" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态沉淀交付部</v>
+        <v>便捷性串联部</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
@@ -28082,7 +28134,7 @@
       </c>
       <c r="E87" t="str" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度对焦组</v>
+        <v>WXG通道部</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
@@ -28091,7 +28143,7 @@
       </c>
       <c r="E88" t="str" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端布局交付部</v>
+        <v>便捷性细分交付部</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
@@ -28100,7 +28152,7 @@
       </c>
       <c r="E89" t="str" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点生态部</v>
+        <v>颗粒度支撑组</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
@@ -28109,7 +28161,7 @@
       </c>
       <c r="E90" t="str" cm="1">
         <f t="array" aca="1" ref="E90" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河体感交付部</v>
+        <v>耦合性对标部</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
@@ -28118,7 +28170,7 @@
       </c>
       <c r="E91" t="str" cm="1">
         <f t="array" aca="1" ref="E91" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快围绕交付部</v>
+        <v>WXG开拓部</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
@@ -28127,7 +28179,7 @@
       </c>
       <c r="E92" t="str" cm="1">
         <f t="array" aca="1" ref="E92" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量闭环交付部</v>
+        <v>价值转化生态部</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
@@ -28136,7 +28188,7 @@
       </c>
       <c r="E93" t="str" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式横向交付部</v>
+        <v>关键路径晌应交付部</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
@@ -28145,1969 +28197,1969 @@
       </c>
       <c r="E94" t="str" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑抓手组</v>
+        <v>强化认知赋能交付部</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E95" t="str" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化体系交付部</v>
+        <v>感知度围绕部</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E96" t="str" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化矩阵组</v>
+        <v>组合拳破圈组</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E97" t="str" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性抓手部</v>
+        <v>新生态支撑交付部</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E98" t="str" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性打通组</v>
+        <v>微信渗透交付部</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E99" t="str" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG载体部</v>
+        <v>影响力包装部</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E100" t="str" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端抽象部</v>
+        <v>点线面支撑部</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E101" t="str" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性聚合部</v>
+        <v>结构化调性部</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E102" t="str" cm="1">
         <f t="array" aca="1" ref="E102" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径刺激部</v>
+        <v>归因分析试点交付部</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E103" t="str" cm="1">
         <f t="array" aca="1" ref="E103" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式规模组</v>
+        <v>结果导向感知部</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E104" t="str" cm="1">
         <f t="array" aca="1" ref="E104" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>交付价值落地交付部</v>
+        <v>去中心化心力部</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E105" t="str" cm="1">
         <f t="array" aca="1" ref="E105" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端赛道组</v>
+        <v>端到端共建部</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E106" t="str" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性聚合交付部</v>
+        <v>方法论通道部</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E107" t="str" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态调性组</v>
+        <v>平台化渗透部</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E108" t="str" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化提炼交付部</v>
+        <v>便捷性迁移交付部</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E109" t="str" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性调性交付部</v>
+        <v>差异化维度部</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E110" t="str" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性矩阵组</v>
+        <v>WXG支撑部</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E111" t="str" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG摸索组</v>
+        <v>结构化场景组</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E112" t="str" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>如何收口穿梭交付部</v>
+        <v>资源倾斜联动部</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" t="str" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑梳理交付部</v>
+        <v>体验度量中台部</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E114" t="str" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量话术部</v>
+        <v>信息屏障刺激部</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E115" t="str" cm="1">
         <f t="array" aca="1" ref="E115" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论沉淀交付部</v>
+        <v>端到端破圈部</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" t="str" cm="1">
         <f t="array" aca="1" ref="E116" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化打透部</v>
+        <v>WXG链路交付部</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E117" t="str" cm="1">
         <f t="array" aca="1" ref="E117" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG兼容部</v>
+        <v>方法论合力组</v>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E118" t="str" cm="1">
         <f t="array" aca="1" ref="E118" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态加速交付部</v>
+        <v>颗粒度晌应部</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119" t="str" cm="1">
         <f t="array" aca="1" ref="E119" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化生态组</v>
+        <v>护城河梳理交付部</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E120" t="str" cm="1">
         <f t="array" aca="1" ref="E120" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化给到部</v>
+        <v>易用性拉通部</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" t="str" cm="1">
         <f t="array" aca="1" ref="E121" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG心智交付部</v>
+        <v>耦合性落地交付部</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E122" t="str" cm="1">
         <f t="array" aca="1" ref="E122" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化联动交付部</v>
+        <v>生命周期话术部</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E123" t="str" cm="1">
         <f t="array" aca="1" ref="E123" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑复盘交付部</v>
+        <v>复用打法中台部</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E124" t="str" cm="1">
         <f t="array" aca="1" ref="E124" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障反哺交付部</v>
+        <v>资源倾斜抽象部</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E125" t="str" cm="1">
         <f t="array" aca="1" ref="E125" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端打透交付部</v>
+        <v>颗粒度抓手交付部</v>
       </c>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E126" t="str" cm="1">
         <f t="array" aca="1" ref="E126" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面场景部</v>
+        <v>便捷性梳理组</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E127" t="str" cm="1">
         <f t="array" aca="1" ref="E127" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG梳理部</v>
+        <v>WXG共创部</v>
       </c>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E128" t="str" cm="1">
         <f t="array" aca="1" ref="E128" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河量化部</v>
+        <v>短平快试点交付部</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E129" t="str" cm="1">
         <f t="array" aca="1" ref="E129" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化聚焦组</v>
+        <v>方法论体感部</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" t="str" cm="1">
         <f t="array" aca="1" ref="E130" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化输出交付部</v>
+        <v>短平快场景组</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E131" t="str" cm="1">
         <f t="array" aca="1" ref="E131" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度调性部</v>
+        <v>一致性发力组</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132" t="str" cm="1">
         <f t="array" aca="1" ref="E132" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域共创部</v>
+        <v>降维打击沉淀交付部</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E133" t="str" cm="1">
         <f t="array" aca="1" ref="E133" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>体验度量联动交付部</v>
+        <v>底层逻辑给到交付部</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E134" t="str" cm="1">
         <f t="array" aca="1" ref="E134" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑载体交付部</v>
+        <v>顶层设计中台交付部</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E135" t="str" cm="1">
         <f t="array" aca="1" ref="E135" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳载体部</v>
+        <v>点线面加速交付部</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" t="str" cm="1">
         <f t="array" aca="1" ref="E136" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化模型交付部</v>
+        <v>短平快倒逼部</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E137" t="str" cm="1">
         <f t="array" aca="1" ref="E137" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快履约交付部</v>
+        <v>点线面分装交付部</v>
       </c>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E138" t="str" cm="1">
         <f t="array" aca="1" ref="E138" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化吃透组</v>
+        <v>端到端赛道组</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E139" t="str" cm="1">
         <f t="array" aca="1" ref="E139" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力包装交付部</v>
+        <v>易用性迁移交付部</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" t="str" cm="1">
         <f t="array" aca="1" ref="E140" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态破圈部</v>
+        <v>WXG拉通组</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E141" t="str" cm="1">
         <f t="array" aca="1" ref="E141" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性落地组</v>
+        <v>新生态规模部</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" t="str" cm="1">
         <f t="array" aca="1" ref="E142" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>复用打法抓手交付部</v>
+        <v>交付价值打透部</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E143" t="str" cm="1">
         <f t="array" aca="1" ref="E143" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>资源倾斜抓手组</v>
+        <v>信息屏障因子交付部</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E144" t="str" cm="1">
         <f t="array" aca="1" ref="E144" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化拆解交付部</v>
+        <v>结果导向模型交付部</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145" t="str" cm="1">
         <f t="array" aca="1" ref="E145" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面试点部</v>
+        <v>微信聚焦组</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E146" t="str" cm="1">
         <f t="array" aca="1" ref="E146" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性矩阵交付部</v>
+        <v>感知度给到交付部</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E147" t="str" cm="1">
         <f t="array" aca="1" ref="E147" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性矩阵交付部</v>
+        <v>WXG拆解部</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" t="str" cm="1">
         <f t="array" aca="1" ref="E148" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度对标交付部</v>
+        <v>一致性话术部</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E149" t="str" cm="1">
         <f t="array" aca="1" ref="E149" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG心智部</v>
+        <v>颗粒度复用交付部</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E150" t="str" cm="1">
         <f t="array" aca="1" ref="E150" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河赛道部</v>
+        <v>端到端生态交付部</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E151" t="str" cm="1">
         <f t="array" aca="1" ref="E151" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论围绕部</v>
+        <v>WXG战役交付部</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E152" t="str" cm="1">
         <f t="array" aca="1" ref="E152" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径分层部</v>
+        <v>信息屏障梳理交付部</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E153" t="str" cm="1">
         <f t="array" aca="1" ref="E153" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑皮实部</v>
+        <v>如何收口话术部</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E154" t="str" cm="1">
         <f t="array" aca="1" ref="E154" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径提炼部</v>
+        <v>去中心化基因交付部</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E155" t="str" cm="1">
         <f t="array" aca="1" ref="E155" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快基因部</v>
+        <v>WXG聚焦部</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E156" t="str" cm="1">
         <f t="array" aca="1" ref="E156" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河试点交付部</v>
+        <v>新生态对齐交付部</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E157" t="str" cm="1">
         <f t="array" aca="1" ref="E157" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力复用组</v>
+        <v>组合拳反晡部</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E158" t="str" cm="1">
         <f t="array" aca="1" ref="E158" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性渗透组</v>
+        <v>WXG聚焦交付部</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E159" t="str" cm="1">
         <f t="array" aca="1" ref="E159" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳认知交付部</v>
+        <v>护城河共建交付部</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E160" t="str" cm="1">
         <f t="array" aca="1" ref="E160" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态感知部</v>
+        <v>颗粒度打透部</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E161" t="str" cm="1">
         <f t="array" aca="1" ref="E161" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化晌应部</v>
+        <v>WXG维度部</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E162" t="str" cm="1">
         <f t="array" aca="1" ref="E162" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑体感组</v>
+        <v>垂直领域赛道部</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" t="str" cm="1">
         <f t="array" aca="1" ref="E163" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>如何收口战役部</v>
+        <v>价值转化话术组</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" t="str" cm="1">
         <f t="array" aca="1" ref="E164" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传晌应组</v>
+        <v>价值转化细分部</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" t="str" cm="1">
         <f t="array" aca="1" ref="E165" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态布局部</v>
+        <v>WXG兼容交付部</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E166" t="str" cm="1">
         <f t="array" aca="1" ref="E166" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态抽象部</v>
+        <v>WXG协同组</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E167" t="str" cm="1">
         <f t="array" aca="1" ref="E167" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性形态组</v>
+        <v>易用性扩展部</v>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E168" t="str" cm="1">
         <f t="array" aca="1" ref="E168" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态扩展交付部</v>
+        <v>微信加持交付部</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E169" t="str" cm="1">
         <f t="array" aca="1" ref="E169" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化履约部</v>
+        <v>WXG沉淀组</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E170" t="str" cm="1">
         <f t="array" aca="1" ref="E170" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化形态交付部</v>
+        <v>组合拳通道部</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E171" t="str" cm="1">
         <f t="array" aca="1" ref="E171" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG生态交付部</v>
+        <v>平台化形态部</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E172" t="str" cm="1">
         <f t="array" aca="1" ref="E172" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>强化认知死磕部</v>
+        <v>价值转化打透组</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E173" t="str" cm="1">
         <f t="array" aca="1" ref="E173" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传死磕部</v>
+        <v>去中心化形态交付部</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E174" t="str" cm="1">
         <f t="array" aca="1" ref="E174" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域体感组</v>
+        <v>底层逻辑复用部</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E175" t="str" cm="1">
         <f t="array" aca="1" ref="E175" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性补位交付部</v>
+        <v>平台化提炼部</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E176" t="str" cm="1">
         <f t="array" aca="1" ref="E176" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河穿梭部</v>
+        <v>护城河对标交付部</v>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E177" t="str" cm="1">
         <f t="array" aca="1" ref="E177" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力加持部</v>
+        <v>耦合性晌应部</v>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E178" t="str" cm="1">
         <f t="array" aca="1" ref="E178" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG闭环交付部</v>
+        <v>WXG玩法组</v>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E179" t="str" cm="1">
         <f t="array" aca="1" ref="E179" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化兼容部</v>
+        <v>WXG纽带交付部</v>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E180" t="str" cm="1">
         <f t="array" aca="1" ref="E180" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性履约部</v>
+        <v>短平快解耦交付部</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E181" t="str" cm="1">
         <f t="array" aca="1" ref="E181" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度赋能交付部</v>
+        <v>WXG反哺交付部</v>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E182" t="str" cm="1">
         <f t="array" aca="1" ref="E182" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑认知组</v>
+        <v>复用打法维度交付部</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E183" t="str" cm="1">
         <f t="array" aca="1" ref="E183" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析反哺交付部</v>
+        <v>价值转化反哺部</v>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E184" t="str" cm="1">
         <f t="array" aca="1" ref="E184" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>交付价值串联部</v>
+        <v>价值转化话术交付部</v>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E185" t="str" cm="1">
         <f t="array" aca="1" ref="E185" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度死磕交付部</v>
+        <v>颗粒度发力交付部</v>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E186" t="str" cm="1">
         <f t="array" aca="1" ref="E186" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端分装部</v>
+        <v>WXG提炼组</v>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E187" t="str" cm="1">
         <f t="array" aca="1" ref="E187" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化穿梭交付部</v>
+        <v>端到端心智部</v>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E188" t="str" cm="1">
         <f t="array" aca="1" ref="E188" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快拉通部</v>
+        <v>WXG基因交付部</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E189" t="str" cm="1">
         <f t="array" aca="1" ref="E189" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性模型组</v>
+        <v>易用性复用部</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E190" t="str" cm="1">
         <f t="array" aca="1" ref="E190" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论对标交付部</v>
+        <v>影响力因子交付部</v>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E191" t="str" cm="1">
         <f t="array" aca="1" ref="E191" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性吃透部</v>
+        <v>一致性体系部</v>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E192" t="str" cm="1">
         <f t="array" aca="1" ref="E192" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑兼容组</v>
+        <v>抽离透传拆解部</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E193" t="str" cm="1">
         <f t="array" aca="1" ref="E193" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>价值转化生态部</v>
+        <v>底层逻辑载体交付部</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E194" t="str" cm="1">
         <f t="array" aca="1" ref="E194" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量融合交付部</v>
+        <v>结果导向摸索组</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E195" t="str" cm="1">
         <f t="array" aca="1" ref="E195" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性分层部</v>
+        <v>新生态聚焦组</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E196" t="str" cm="1">
         <f t="array" aca="1" ref="E196" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性刺激组</v>
+        <v>平台化心力组</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E197" t="str" cm="1">
         <f t="array" aca="1" ref="E197" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG穿梭部</v>
+        <v>结构化辐射交付部</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E198" t="str" cm="1">
         <f t="array" aca="1" ref="E198" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化融合交付部</v>
+        <v>WXG试点部</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E199" t="str" cm="1">
         <f t="array" aca="1" ref="E199" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信复用交付部</v>
+        <v>一致性倒逼部</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E200" t="str" cm="1">
         <f t="array" aca="1" ref="E200" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性渗透部</v>
+        <v>WXG重组交付部</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E201" t="str" cm="1">
         <f t="array" aca="1" ref="E201" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性基因交付部</v>
+        <v>结构化落地部</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E202" t="str" cm="1">
         <f t="array" aca="1" ref="E202" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域给到部</v>
+        <v>交付价值吃透部</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E203" t="str" cm="1">
         <f t="array" aca="1" ref="E203" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑心力部</v>
+        <v>完善逻辑输出交付部</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E204" t="str" cm="1">
         <f t="array" aca="1" ref="E204" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>价值转化复用组</v>
+        <v>资源倾斜对标部</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E205" t="str" cm="1">
         <f t="array" aca="1" ref="E205" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG矩阵交付部</v>
+        <v>差异化刺激部</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E206" t="str" cm="1">
         <f t="array" aca="1" ref="E206" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性解耦部</v>
+        <v>WXG联动部</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E207" t="str" cm="1">
         <f t="array" aca="1" ref="E207" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态输出交付部</v>
+        <v>方法论输出交付部</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E208" t="str" cm="1">
         <f t="array" aca="1" ref="E208" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化联动部</v>
+        <v>结构化反哺部</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E209" t="str" cm="1">
         <f t="array" aca="1" ref="E209" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快支撑交付部</v>
+        <v>新生态玩法组</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E210" t="str" cm="1">
         <f t="array" aca="1" ref="E210" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论漏斗部</v>
+        <v>耦合性体感部</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E211" t="str" cm="1">
         <f t="array" aca="1" ref="E211" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河漏斗部</v>
+        <v>短平快格局交付部</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E212" t="str" cm="1">
         <f t="array" aca="1" ref="E212" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>价值转化兼容交付部</v>
+        <v>体验度量布局部</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E213" t="str" cm="1">
         <f t="array" aca="1" ref="E213" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击加速交付部</v>
+        <v>信息屏障细分部</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E214" t="str" cm="1">
         <f t="array" aca="1" ref="E214" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击体系部</v>
+        <v>降维打击赋能交付部</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E215" t="str" cm="1">
         <f t="array" aca="1" ref="E215" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳布局组</v>
+        <v>一致性量化部</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E216" t="str" cm="1">
         <f t="array" aca="1" ref="E216" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点兼容交付部</v>
+        <v>WXG抽象组</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E217" t="str" cm="1">
         <f t="array" aca="1" ref="E217" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度重组交付部</v>
+        <v>耦合性模型交付部</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E218" t="str" cm="1">
         <f t="array" aca="1" ref="E218" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度集成交付部</v>
+        <v>引爆点闭环部</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E219" t="str" cm="1">
         <f t="array" aca="1" ref="E219" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性给到交付部</v>
+        <v>便捷性开拓交付部</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E220" t="str" cm="1">
         <f t="array" aca="1" ref="E220" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点补位交付部</v>
+        <v>引爆点联动交付部</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E221" t="str" cm="1">
         <f t="array" aca="1" ref="E221" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度辐射交付部</v>
+        <v>微信加速交付部</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E222" t="str" cm="1">
         <f t="array" aca="1" ref="E222" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障集成部</v>
+        <v>交付价值载体交付部</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E223" t="str" cm="1">
         <f t="array" aca="1" ref="E223" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域抽象部</v>
+        <v>关键路径加速部</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E224" t="str" cm="1">
         <f t="array" aca="1" ref="E224" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>复用打法死磕部</v>
+        <v>生命周期维度部</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E225" t="str" cm="1">
         <f t="array" aca="1" ref="E225" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快对标组</v>
+        <v>引爆点穿梭部</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E226" t="str" cm="1">
         <f t="array" aca="1" ref="E226" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点集成部</v>
+        <v>颗粒度链路部</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E227" t="str" cm="1">
         <f t="array" aca="1" ref="E227" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河共创交付部</v>
+        <v>方法论感知部</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E228" t="str" cm="1">
         <f t="array" aca="1" ref="E228" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河聚合交付部</v>
+        <v>点线面赛道部</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E229" t="str" cm="1">
         <f t="array" aca="1" ref="E229" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点共建部</v>
+        <v>点线面协同部</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E230" t="str" cm="1">
         <f t="array" aca="1" ref="E230" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳打透部</v>
+        <v>微信模型部</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E231" t="str" cm="1">
         <f t="array" aca="1" ref="E231" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度规模组</v>
+        <v>感知度模型交付部</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E232" t="str" cm="1">
         <f t="array" aca="1" ref="E232" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析包装交付部</v>
+        <v>价值转化复用交付部</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E233" t="str" cm="1">
         <f t="array" aca="1" ref="E233" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传场景部</v>
+        <v>降维打击反晡组</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E234" t="str" cm="1">
         <f t="array" aca="1" ref="E234" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障基因部</v>
+        <v>价值转化体感交付部</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E235" t="str" cm="1">
         <f t="array" aca="1" ref="E235" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论合力组</v>
+        <v>护城河提炼部</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E236" t="str" cm="1">
         <f t="array" aca="1" ref="E236" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化抓手交付部</v>
+        <v>平台化吃透部</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E237" t="str" cm="1">
         <f t="array" aca="1" ref="E237" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG反哺交付部</v>
+        <v>差异化刺激部</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E238" t="str" cm="1">
         <f t="array" aca="1" ref="E238" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端格局部</v>
+        <v>感知度调性交付部</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E239" t="str" cm="1">
         <f t="array" aca="1" ref="E239" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化分发交付部</v>
+        <v>组合拳抽象部</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E240" t="str" cm="1">
         <f t="array" aca="1" ref="E240" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG生态部</v>
+        <v>短平快梳理交付部</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E241" t="str" cm="1">
         <f t="array" aca="1" ref="E241" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度皮实部</v>
+        <v>一致性落地部</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E242" t="str" cm="1">
         <f t="array" aca="1" ref="E242" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑赋能交付部</v>
+        <v>生命周期刺激交付部</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E243" t="str" cm="1">
         <f t="array" aca="1" ref="E243" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障心智交付部</v>
+        <v>垂直领域迁移交付部</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E244" t="str" cm="1">
         <f t="array" aca="1" ref="E244" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量打透组</v>
+        <v>商业模式打透部</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E245" t="str" cm="1">
         <f t="array" aca="1" ref="E245" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论落地交付部</v>
+        <v>结构化沉淀交付部</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E246" t="str" cm="1">
         <f t="array" aca="1" ref="E246" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性通道部</v>
+        <v>影响力场景交付部</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E247" t="str" cm="1">
         <f t="array" aca="1" ref="E247" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化维度交付部</v>
+        <v>护城河细分部</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E248" t="str" cm="1">
         <f t="array" aca="1" ref="E248" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论战役交付部</v>
+        <v>易用性通道部</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E249" t="str" cm="1">
         <f t="array" aca="1" ref="E249" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性基因交付部</v>
+        <v>影响力支撑交付部</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E250" t="str" cm="1">
         <f t="array" aca="1" ref="E250" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力打法部</v>
+        <v>感知度打法部</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E251" t="str" cm="1">
         <f t="array" aca="1" ref="E251" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性渗透组</v>
+        <v>端到端反晡交付部</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E252" t="str" cm="1">
         <f t="array" aca="1" ref="E252" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析复用部</v>
+        <v>体验度量抽象部</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E253" t="str" cm="1">
         <f t="array" aca="1" ref="E253" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域输出组</v>
+        <v>底层逻辑布局部</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E254" t="str" cm="1">
         <f t="array" aca="1" ref="E254" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>复用打法细分组</v>
+        <v>价值转化试点交付部</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E255" t="str" cm="1">
         <f t="array" aca="1" ref="E255" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG维度组</v>
+        <v>组合拳体感组</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E256" t="str" cm="1">
         <f t="array" aca="1" ref="E256" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化死磕交付部</v>
+        <v>便捷性给到部</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E257" t="str" cm="1">
         <f t="array" aca="1" ref="E257" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论吃透部</v>
+        <v>结构化打通组</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E258" t="str" cm="1">
         <f t="array" aca="1" ref="E258" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性封装部</v>
+        <v>平台化试点交付部</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E259" t="str" cm="1">
         <f t="array" aca="1" ref="E259" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG晌应部</v>
+        <v>感知度赛道交付部</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E260" t="str" cm="1">
         <f t="array" aca="1" ref="E260" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性抽象交付部</v>
+        <v>WXG开拓部</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E261" t="str" cm="1">
         <f t="array" aca="1" ref="E261" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化封装部</v>
+        <v>平台化基因组</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E262" t="str" cm="1">
         <f t="array" aca="1" ref="E262" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>快速响应输出交付部</v>
+        <v>复用打法闭环交付部</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E263" t="str" cm="1">
         <f t="array" aca="1" ref="E263" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量对齐部</v>
+        <v>垂直领域打透组</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E264" t="str" cm="1">
         <f t="array" aca="1" ref="E264" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径反晡交付部</v>
+        <v>抽离透传漏斗交付部</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E265" t="str" cm="1">
         <f t="array" aca="1" ref="E265" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG闭环部</v>
+        <v>差异化扩展交付部</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E266" t="str" cm="1">
         <f t="array" aca="1" ref="E266" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG提炼部</v>
+        <v>新生态赋能交付部</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E267" t="str" cm="1">
         <f t="array" aca="1" ref="E267" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳布局交付部</v>
+        <v>一致性拉通部</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E268" t="str" cm="1">
         <f t="array" aca="1" ref="E268" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论合力部</v>
+        <v>组合拳重组部</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E269" t="str" cm="1">
         <f t="array" aca="1" ref="E269" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳纽带组</v>
+        <v>精细化扩展交付部</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E270" t="str" cm="1">
         <f t="array" aca="1" ref="E270" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳抽象部</v>
+        <v>精细化抓手交付部</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E271" t="str" cm="1">
         <f t="array" aca="1" ref="E271" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化规模部</v>
+        <v>点线面感知部</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E272" t="str" cm="1">
         <f t="array" aca="1" ref="E272" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>资源倾斜话术交付部</v>
+        <v>生命周期补位部</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E273" t="str" cm="1">
         <f t="array" aca="1" ref="E273" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑体系部</v>
+        <v>强化认知串联部</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E274" t="str" cm="1">
         <f t="array" aca="1" ref="E274" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量体系交付部</v>
+        <v>关键路径履约部</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E275" t="str" cm="1">
         <f t="array" aca="1" ref="E275" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性规模部</v>
+        <v>方法论体系交付部</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E276" t="str" cm="1">
         <f t="array" aca="1" ref="E276" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度吃透交付部</v>
+        <v>短平快渗透组</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E277" t="str" cm="1">
         <f t="array" aca="1" ref="E277" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面刺激交付部</v>
+        <v>WXG补位部</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E278" t="str" cm="1">
         <f t="array" aca="1" ref="E278" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河死磕部</v>
+        <v>端到端分装组</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E279" t="str" cm="1">
         <f t="array" aca="1" ref="E279" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性提炼部</v>
+        <v>耦合性试点部</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E280" t="str" cm="1">
         <f t="array" aca="1" ref="E280" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点抽象部</v>
+        <v>结构化聚焦部</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E281" t="str" cm="1">
         <f t="array" aca="1" ref="E281" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端渗透组</v>
+        <v>耦合性输出部</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E282" t="str" cm="1">
         <f t="array" aca="1" ref="E282" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击补位部</v>
+        <v>复用打法封装部</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E283" t="str" cm="1">
         <f t="array" aca="1" ref="E283" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>生命周期围绕部</v>
+        <v>底层逻辑分层部</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E284" t="str" cm="1">
         <f t="array" aca="1" ref="E284" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传拉通部</v>
+        <v>快速响应穿梭交付部</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E285" t="str" cm="1">
         <f t="array" aca="1" ref="E285" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性摸索部</v>
+        <v>方法论沉淀部</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E286" t="str" cm="1">
         <f t="array" aca="1" ref="E286" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性皮实交付部</v>
+        <v>颗粒度解耦交付部</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E287" t="str" cm="1">
         <f t="array" aca="1" ref="E287" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度中台交付部</v>
+        <v>耦合性协同部</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E288" t="str" cm="1">
         <f t="array" aca="1" ref="E288" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性体系组</v>
+        <v>WXG辐射交付部</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E289" t="str" cm="1">
         <f t="array" aca="1" ref="E289" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快封装部</v>
+        <v>平台化认知组</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E290" t="str" cm="1">
         <f t="array" aca="1" ref="E290" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性因子部</v>
+        <v>结构化反晡组</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E291" t="str" cm="1">
         <f t="array" aca="1" ref="E291" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性重组部</v>
+        <v>组合拳重组部</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E292" t="str" cm="1">
         <f t="array" aca="1" ref="E292" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>定性定量赛道交付部</v>
+        <v>强化认知解耦部</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E293" t="str" cm="1">
         <f t="array" aca="1" ref="E293" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化补位交付部</v>
+        <v>交付价值因子交付部</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E294" t="str" cm="1">
         <f t="array" aca="1" ref="E294" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>生命周期对焦部</v>
+        <v>降维打击给到部</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E295" t="str" cm="1">
         <f t="array" aca="1" ref="E295" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化布局交付部</v>
+        <v>短平快集成交付部</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E296" t="str" cm="1">
         <f t="array" aca="1" ref="E296" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG渗透组</v>
+        <v>差异化倒逼交付部</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E297" t="str" cm="1">
         <f t="array" aca="1" ref="E297" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端迁移交付部</v>
+        <v>WXG共创组</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E298" t="str" cm="1">
         <f t="array" aca="1" ref="E298" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG形态部</v>
+        <v>WXG重组交付部</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E299" t="str" cm="1">
         <f t="array" aca="1" ref="E299" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面分装部</v>
+        <v>点线面集成组</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E300" t="str" cm="1">
         <f t="array" aca="1" ref="E300" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性融合部</v>
+        <v>影响力纽带交付部</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E301" t="str" cm="1">
         <f t="array" aca="1" ref="E301" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点格局交付部</v>
+        <v>结构化规模部</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E302" t="str" cm="1">
         <f t="array" aca="1" ref="E302" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>交付价值反晡组</v>
+        <v>快速响应场景部</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E303" t="str" cm="1">
         <f t="array" aca="1" ref="E303" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>生命周期扩展部</v>
+        <v>商业模式聚合部</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E304" t="str" cm="1">
         <f t="array" aca="1" ref="E304" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>强化认知拆解部</v>
+        <v>结果导向话术部</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E305" t="str" cm="1">
         <f t="array" aca="1" ref="E305" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端体系组</v>
+        <v>微信格局部</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E306" t="str" cm="1">
         <f t="array" aca="1" ref="E306" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快扩展部</v>
+        <v>方法论反晡部</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E307" t="str" cm="1">
         <f t="array" aca="1" ref="E307" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG复盘组</v>
+        <v>平台化合力交付部</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E308" t="str" cm="1">
         <f t="array" aca="1" ref="E308" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河共建组</v>
+        <v>微信给到组</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E309" t="str" cm="1">
         <f t="array" aca="1" ref="E309" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化玩法部</v>
+        <v>微信维度部</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E310" t="str" cm="1">
         <f t="array" aca="1" ref="E310" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性对标交付部</v>
+        <v>影响力布局组</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E311" t="str" cm="1">
         <f t="array" aca="1" ref="E311" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG聚焦部</v>
+        <v>新生态共创部</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E312" t="str" cm="1">
         <f t="array" aca="1" ref="E312" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析体系部</v>
+        <v>关键路径履约部</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E313" t="str" cm="1">
         <f t="array" aca="1" ref="E313" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>复用打法给到交付部</v>
+        <v>信息屏障矩阵部</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E314" t="str" cm="1">
         <f t="array" aca="1" ref="E314" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径集成交付部</v>
+        <v>顶层设计合力交付部</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E315" t="str" cm="1">
         <f t="array" aca="1" ref="E315" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG闭环部</v>
+        <v>WXG话术部</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E316" t="str" cm="1">
         <f t="array" aca="1" ref="E316" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点给到交付部</v>
+        <v>WXG融合交付部</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E317" t="str" cm="1">
         <f t="array" aca="1" ref="E317" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端闭环部</v>
+        <v>WXG摸索组</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E318" t="str" cm="1">
         <f t="array" aca="1" ref="E318" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论中台部</v>
+        <v>微信扩展交付部</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E319" t="str" cm="1">
         <f t="array" aca="1" ref="E319" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态聚合交付部</v>
+        <v>结构化提炼组</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E320" t="str" cm="1">
         <f t="array" aca="1" ref="E320" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG分发交付部</v>
+        <v>方法论共建交付部</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E321" t="str" cm="1">
         <f t="array" aca="1" ref="E321" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点晌应部</v>
+        <v>耦合性分层交付部</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E322" t="str" cm="1">
         <f t="array" aca="1" ref="E322" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传吃透交付部</v>
+        <v>商业模式闭环部</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E323" t="str" cm="1">
         <f t="array" aca="1" ref="E323" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑联动组</v>
+        <v>如何收口破圈部</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E324" t="str" cm="1">
         <f t="array" aca="1" ref="E324" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>资源倾斜中台部</v>
+        <v>复用打法倒逼交付部</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E325" t="str" cm="1">
         <f t="array" aca="1" ref="E325" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态格局交付部</v>
+        <v>WXG皮实交付部</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E326" t="str" cm="1">
         <f t="array" aca="1" ref="E326" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论基因组</v>
+        <v>端到端横向交付部</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E327" t="str" cm="1">
         <f t="array" aca="1" ref="E327" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河提炼部</v>
+        <v>方法论打透交付部</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E328" t="str" cm="1">
         <f t="array" aca="1" ref="E328" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG对标部</v>
+        <v>差异化链路交付部</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E329" t="str" cm="1">
         <f t="array" aca="1" ref="E329" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面皮实部</v>
+        <v>易用性心智部</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E330" t="str" cm="1">
         <f t="array" aca="1" ref="E330" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端晌应交付部</v>
+        <v>便捷性闭环交付部</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E331" t="str" cm="1">
         <f t="array" aca="1" ref="E331" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>方法论体感部</v>
+        <v>一致性场景组</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E332" t="str" cm="1">
         <f t="array" aca="1" ref="E332" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式体感交付部</v>
+        <v>复用打法赋能交付部</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E333" t="str" cm="1">
         <f t="array" aca="1" ref="E333" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化心力交付部</v>
+        <v>强化认知沉淀部</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E334" t="str" cm="1">
         <f t="array" aca="1" ref="E334" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>关键路径合力组</v>
+        <v>体验度量沉淀交付部</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E335" t="str" cm="1">
         <f t="array" aca="1" ref="E335" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河漏斗交付部</v>
+        <v>精细化发力交付部</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E336" t="str" cm="1">
         <f t="array" aca="1" ref="E336" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳晌应交付部</v>
+        <v>WXG封装部</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E337" t="str" cm="1">
         <f t="array" aca="1" ref="E337" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端梳理交付部</v>
+        <v>点线面试点组</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E338" t="str" cm="1">
         <f t="array" aca="1" ref="E338" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳加速部</v>
+        <v>WXG对标交付部</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E339" t="str" cm="1">
         <f t="array" aca="1" ref="E339" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>耦合性穿梭交付部</v>
+        <v>颗粒度中台部</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E340" t="str" cm="1">
         <f t="array" aca="1" ref="E340" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度调性交付部</v>
+        <v>耦合性串联部</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E341" t="str" cm="1">
         <f t="array" aca="1" ref="E341" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端分层交付部</v>
+        <v>差异化提炼部</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E342" t="str" cm="1">
         <f t="array" aca="1" ref="E342" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结果导向拉通部</v>
+        <v>底层逻辑对标交付部</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E343" t="str" cm="1">
         <f t="array" aca="1" ref="E343" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域形态交付部</v>
+        <v>抽离透传反哺组</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E344" t="str" cm="1">
         <f t="array" aca="1" ref="E344" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>垂直领域破圈组</v>
+        <v>归因分析打透部</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E345" t="str" cm="1">
         <f t="array" aca="1" ref="E345" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面玩法交付部</v>
+        <v>便捷性通道部</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E346" t="str" cm="1">
         <f t="array" aca="1" ref="E346" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力反晡部</v>
+        <v>护城河中台部</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E347" t="str" cm="1">
         <f t="array" aca="1" ref="E347" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG围绕交付部</v>
+        <v>便捷性打法组</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E348" t="str" cm="1">
         <f t="array" aca="1" ref="E348" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性调性部</v>
+        <v>颗粒度反哺部</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E349" t="str" cm="1">
         <f t="array" aca="1" ref="E349" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力打法部</v>
+        <v>WXG通道交付部</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E350" t="str" cm="1">
         <f t="array" aca="1" ref="E350" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG补位部</v>
+        <v>精细化试点部</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E351" t="str" cm="1">
         <f t="array" aca="1" ref="E351" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性规模部</v>
+        <v>便捷性战役交付部</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E352" t="str" cm="1">
         <f t="array" aca="1" ref="E352" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>去中心化共建交付部</v>
+        <v>复用打法打通组</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E353" t="str" cm="1">
         <f t="array" aca="1" ref="E353" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑输出交付部</v>
+        <v>如何收口心智部</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E354" t="str" cm="1">
         <f t="array" aca="1" ref="E354" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑漏斗部</v>
+        <v>抽离透传布局交付部</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E355" t="str" cm="1">
         <f t="array" aca="1" ref="E355" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信融合部</v>
+        <v>WXG封装交付部</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E356" t="str" cm="1">
         <f t="array" aca="1" ref="E356" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>端到端打法交付部</v>
+        <v>短平快晌应部</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E357" t="str" cm="1">
         <f t="array" aca="1" ref="E357" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>引爆点沉淀部</v>
+        <v>WXG细分部</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E358" t="str" cm="1">
         <f t="array" aca="1" ref="E358" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化复盘交付部</v>
+        <v>WXG场景部</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E359" t="str" cm="1">
         <f t="array" aca="1" ref="E359" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快抽象组</v>
+        <v>一致性战役交付部</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E360" t="str" cm="1">
         <f t="array" aca="1" ref="E360" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG试点部</v>
+        <v>点线面打透部</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E361" t="str" cm="1">
         <f t="array" aca="1" ref="E361" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化解耦交付部</v>
+        <v>影响力围绕部</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E362" t="str" cm="1">
         <f t="array" aca="1" ref="E362" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑摸索部</v>
+        <v>关键路径矩阵部</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E363" t="str" cm="1">
         <f t="array" aca="1" ref="E363" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>信息屏障场景部</v>
+        <v>如何收口抽象交付部</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E364" t="str" cm="1">
         <f t="array" aca="1" ref="E364" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>资源倾斜格局交付部</v>
+        <v>价值转化感知部</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E365" t="str" cm="1">
         <f t="array" aca="1" ref="E365" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>短平快补位部</v>
+        <v>引爆点扩展交付部</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E366" t="str" cm="1">
         <f t="array" aca="1" ref="E366" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力串联交付部</v>
+        <v>耦合性落地交付部</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E367" t="str" cm="1">
         <f t="array" aca="1" ref="E367" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳开拓交付部</v>
+        <v>点线面发力组</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E368" t="str" cm="1">
         <f t="array" aca="1" ref="E368" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度场景部</v>
+        <v>便捷性对齐交付部</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E369" t="str" cm="1">
         <f t="array" aca="1" ref="E369" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>微信心智部</v>
+        <v>耦合性打法部</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E370" t="str" cm="1">
         <f t="array" aca="1" ref="E370" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度打法部</v>
+        <v>平台化合力部</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E371" t="str" cm="1">
         <f t="array" aca="1" ref="E371" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化认知交付部</v>
+        <v>端到端细分部</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E372" t="str" cm="1">
         <f t="array" aca="1" ref="E372" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>如何收口扩展组</v>
+        <v>完善逻辑心智交付部</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E373" t="str" cm="1">
         <f t="array" aca="1" ref="E373" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>资源倾斜解耦部</v>
+        <v>结果导向生态部</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E374" t="str" cm="1">
         <f t="array" aca="1" ref="E374" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>顶层设计量化部</v>
+        <v>垂直领域梳理交付部</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E375" t="str" cm="1">
         <f t="array" aca="1" ref="E375" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>新生态规模部</v>
+        <v>WXG抽象交付部</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E376" t="str" cm="1">
         <f t="array" aca="1" ref="E376" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性分发部</v>
+        <v>平台化中台部</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E377" t="str" cm="1">
         <f t="array" aca="1" ref="E377" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化体感部</v>
+        <v>感知度吃透交付部</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E378" t="str" cm="1">
         <f t="array" aca="1" ref="E378" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性支撑部</v>
+        <v>易用性融合部</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E379" t="str" cm="1">
         <f t="array" aca="1" ref="E379" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG聚焦部</v>
+        <v>便捷性刺激组</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E380" t="str" cm="1">
         <f t="array" aca="1" ref="E380" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度补位交付部</v>
+        <v>一致性调性组</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E381" t="str" cm="1">
         <f t="array" aca="1" ref="E381" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力聚焦交付部</v>
+        <v>一致性反晡交付部</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E382" t="str" cm="1">
         <f t="array" aca="1" ref="E382" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击提炼交付部</v>
+        <v>结果导向拆解交付部</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E383" t="str" cm="1">
         <f t="array" aca="1" ref="E383" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>商业模式因子交付部</v>
+        <v>复用打法包装交付部</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E384" t="str" cm="1">
         <f t="array" aca="1" ref="E384" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>归因分析重组交付部</v>
+        <v>体验度量赋能部</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E385" t="str" cm="1">
         <f t="array" aca="1" ref="E385" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性量化交付部</v>
+        <v>微信摸索组</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E386" t="str" cm="1">
         <f t="array" aca="1" ref="E386" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化分层交付部</v>
+        <v>平台化融合部</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E387" t="str" cm="1">
         <f t="array" aca="1" ref="E387" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>影响力融合部</v>
+        <v>引爆点中台部</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E388" t="str" cm="1">
         <f t="array" aca="1" ref="E388" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>平台化反晡交付部</v>
+        <v>WXG破圈部</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E389" t="str" cm="1">
         <f t="array" aca="1" ref="E389" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化渗透交付部</v>
+        <v>易用性死磕部</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E390" t="str" cm="1">
         <f t="array" aca="1" ref="E390" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度心智交付部</v>
+        <v>点线面战役交付部</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E391" t="str" cm="1">
         <f t="array" aca="1" ref="E391" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性加速交付部</v>
+        <v>WXG载体部</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E392" t="str" cm="1">
         <f t="array" aca="1" ref="E392" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>底层逻辑对齐部</v>
+        <v>体验度量对齐部</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E393" t="str" cm="1">
         <f t="array" aca="1" ref="E393" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>完善逻辑辐射组</v>
+        <v>强化认知中台交付部</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E394" t="str" cm="1">
         <f t="array" aca="1" ref="E394" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结果导向加持部</v>
+        <v>强化认知复用交付部</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E395" t="str" cm="1">
         <f t="array" aca="1" ref="E395" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性体感交付部</v>
+        <v>差异化聚焦交付部</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E396" t="str" cm="1">
         <f t="array" aca="1" ref="E396" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>一致性共创部</v>
+        <v>便捷性提炼组</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E397" t="str" cm="1">
         <f t="array" aca="1" ref="E397" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性破圈交付部</v>
+        <v>短平快闭环交付部</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E398" t="str" cm="1">
         <f t="array" aca="1" ref="E398" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>组合拳对标组</v>
+        <v>WXG调性部</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E399" t="str" cm="1">
         <f t="array" aca="1" ref="E399" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>差异化提炼组</v>
+        <v>护城河兼容交付部</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E400" t="str" cm="1">
         <f t="array" aca="1" ref="E400" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性刺激部</v>
+        <v>一致性拉通部</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E401" t="str" cm="1">
         <f t="array" aca="1" ref="E401" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>颗粒度认知交付部</v>
+        <v>感知度提炼交付部</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E402" t="str" cm="1">
         <f t="array" aca="1" ref="E402" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>降维打击聚合部</v>
+        <v>定性定量协同交付部</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E403" t="str" cm="1">
         <f t="array" aca="1" ref="E403" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结果导向给到组</v>
+        <v>结果导向穿梭部</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E404" t="str" cm="1">
         <f t="array" aca="1" ref="E404" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>交付价值梳理部</v>
+        <v>信息屏障皮实组</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E405" t="str" cm="1">
         <f t="array" aca="1" ref="E405" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>结构化给到组</v>
+        <v>颗粒度打透部</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E406" t="str" cm="1">
         <f t="array" aca="1" ref="E406" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河规模部</v>
+        <v>影响力串联交付部</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E407" t="str" cm="1">
         <f t="array" aca="1" ref="E407" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG试点部</v>
+        <v>影响力兼容交付部</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E408" t="str" cm="1">
         <f t="array" aca="1" ref="E408" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG话术部</v>
+        <v>精细化聚合交付部</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E409" t="str" cm="1">
         <f t="array" aca="1" ref="E409" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度形态部</v>
+        <v>微信复用交付部</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E410" t="str" cm="1">
         <f t="array" aca="1" ref="E410" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>精细化漏斗交付部</v>
+        <v>端到端试点部</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E411" t="str" cm="1">
         <f t="array" aca="1" ref="E411" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG分发部</v>
+        <v>WXG死磕部</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E412" t="str" cm="1">
         <f t="array" aca="1" ref="E412" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>抽离透传沉淀交付部</v>
+        <v>底层逻辑兼容部</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E413" t="str" cm="1">
         <f t="array" aca="1" ref="E413" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>强化认知加速交付部</v>
+        <v>去中心化赋能部</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E414" t="str" cm="1">
         <f t="array" aca="1" ref="E414" ca="1">INDIRECT("b"&amp;RANDBETWEEN(2,23))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>快速响应集成交付部</v>
+        <v>垂直领域赋能部</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E415" t="str" cm="1">
         <f t="array" aca="1" ref="E415" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>便捷性感知交付部</v>
+        <v>感知度聚焦部</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E416" t="str" cm="1">
         <f t="array" aca="1" ref="E416" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>感知度体感部</v>
+        <v>WXG补位交付部</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E417" t="str" cm="1">
         <f t="array" aca="1" ref="E417" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG感知部</v>
+        <v>易用性纽带交付部</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E418" t="str" cm="1">
         <f t="array" aca="1" ref="E418" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>WXG维度部</v>
+        <v>端到端提炼交付部</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E419" t="str" cm="1">
         <f t="array" aca="1" ref="E419" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>易用性摸索组</v>
+        <v>WXG细分交付部</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E420" t="str" cm="1">
         <f t="array" aca="1" ref="E420" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>护城河加持交付部</v>
+        <v>WXG协同部</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E421" t="str" cm="1">
         <f t="array" aca="1" ref="E421" ca="1">INDIRECT("D"&amp;RANDBETWEEN(2,25))&amp;INDIRECT("C"&amp;RANDBETWEEN(2,94))&amp;INDIRECT("A"&amp;RANDBETWEEN(2,8))</f>
-        <v>点线面融合交付部</v>
+        <v>感知度吃透交付部</v>
       </c>
     </row>
   </sheetData>
@@ -30118,6 +30170,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797F8E72-48BF-42C4-9ACF-DFD557730758}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H1" t="s">
+        <v>967</v>
+      </c>
+      <c r="I1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J1" t="s">
+        <v>969</v>
+      </c>
+      <c r="K1" t="s">
+        <v>970</v>
+      </c>
+      <c r="L1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2819E0-94B8-4616-BFF5-0DE252B03932}">
+  <dimension ref="B1:W1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CD28F8-3C81-42BA-B9AD-23EBACF33DDB}">
   <dimension ref="A2:C48"/>
   <sheetViews>
@@ -30136,11 +30330,11 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))</f>
-        <v>02403004</v>
+        <v>21342421</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16142142100</v>
+        <v>16412231124</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30149,11 +30343,11 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B21" ca="1" si="0">ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))&amp;ABS(INT(RAND()*5))</f>
-        <v>14004303</v>
+        <v>11211204</v>
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>19002041233</v>
+        <v>14142312130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30162,11 +30356,11 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20121233</v>
+        <v>33002034</v>
       </c>
       <c r="C4" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>19802041233</v>
+        <v>14112231124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -30175,11 +30369,11 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01242024</v>
+        <v>42404213</v>
       </c>
       <c r="C5" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>17942142100</v>
+        <v>16341001304</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30188,11 +30382,11 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>21041102</v>
+        <v>12231124</v>
       </c>
       <c r="C6" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16811122244</v>
+        <v>14431214224</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30201,11 +30395,11 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14103213</v>
+        <v>03313203</v>
       </c>
       <c r="C7" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16144100204</v>
+        <v>19003313203</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30214,11 +30408,11 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12102002</v>
+        <v>42312130</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>15412102002</v>
+        <v>16813432043</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30227,11 +30421,11 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10014140</v>
+        <v>02211413</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>18842142100</v>
+        <v>14003313203</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30240,11 +30434,11 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>24200331</v>
+        <v>13432043</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>17914431201</v>
+        <v>19033002034</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30253,11 +30447,11 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01410230</v>
+        <v>21101000</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>19010014140</v>
+        <v>16431214224</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30266,11 +30460,11 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02041233</v>
+        <v>22241333</v>
       </c>
       <c r="C12" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16401410230</v>
+        <v>18823022014</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30279,11 +30473,11 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42340244</v>
+        <v>31214224</v>
       </c>
       <c r="C13" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>18822421222</v>
+        <v>16002211413</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30292,11 +30486,11 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42144330</v>
+        <v>23023004</v>
       </c>
       <c r="C14" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16842340244</v>
+        <v>16813432043</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30305,11 +30499,11 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14431201</v>
+        <v>33420134</v>
       </c>
       <c r="C15" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>14442142100</v>
+        <v>14321342421</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -30318,11 +30512,11 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10230421</v>
+        <v>41001304</v>
       </c>
       <c r="C16" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>19510014140</v>
+        <v>16022241333</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30331,11 +30525,11 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12401244</v>
+        <v>23022014</v>
       </c>
       <c r="C17" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>14202403004</v>
+        <v>16823023004</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30344,11 +30538,11 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11122244</v>
+        <v>04311214</v>
       </c>
       <c r="C18" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16142340244</v>
+        <v>14012231124</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30357,11 +30551,11 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>22421222</v>
+        <v>10434241</v>
       </c>
       <c r="C19" t="str" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>16412401244</v>
+        <v>16423022014</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -30370,11 +30564,11 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42142100</v>
+        <v>13322430</v>
       </c>
       <c r="C20" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>14212102002</v>
+        <v>16404311214</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30383,11 +30577,11 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>44100204</v>
+        <v>42334244</v>
       </c>
       <c r="C21" t="str" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDIRECT("a"&amp;RANDBETWEEN(2,21))&amp;INDIRECT("b"&amp;RANDBETWEEN(2,21))</f>
-        <v>15442340244</v>
+        <v>16303313203</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -30448,7 +30642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55194D5A-6660-4385-9A97-2187D9128242}">
   <dimension ref="A1:H199"/>
   <sheetViews>
@@ -32088,11 +32282,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803C75C-8A26-4DD4-B87A-3CE0E79EDF18}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B199" sqref="B1:B199"/>
     </sheetView>
   </sheetViews>
@@ -33699,11 +33893,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B209AACC-AF48-4B48-B771-012F654941B0}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
